--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1428.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1428.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.733032973094749</v>
+        <v>0.4694920778274536</v>
       </c>
       <c r="B1">
-        <v>1.988158753907001</v>
+        <v>2.663505792617798</v>
       </c>
       <c r="C1">
-        <v>2.034999661006369</v>
+        <v>6.136752128601074</v>
       </c>
       <c r="D1">
-        <v>2.570809665178968</v>
+        <v>1.734527945518494</v>
       </c>
       <c r="E1">
-        <v>3.131412926411426</v>
+        <v>1.027464151382446</v>
       </c>
     </row>
   </sheetData>
